--- a/file_export/danhsach_daotao_form.xlsx
+++ b/file_export/danhsach_daotao_form.xlsx
@@ -13,7 +13,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DS TOÀN THỂ CB'!$6:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'DS TOÀN THỂ CB'!$5:$6</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -219,80 +219,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,126 +595,126 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A7" sqref="A7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="27.125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="10.625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="5.375" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="6" customWidth="1"/>
-    <col min="9" max="11" width="16.125" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="5.375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="16.125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="I1" s="1" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="I1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21" t="s">
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" s="13" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+    <row r="7" spans="1:11" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/file_export/danhsach_daotao_form.xlsx
+++ b/file_export/danhsach_daotao_form.xlsx
@@ -53,14 +53,13 @@
     <t>Văn bằng chứng chỉ, trình độ gì</t>
   </si>
   <si>
-    <t xml:space="preserve">ĐOÀN TNCS HỒ CHÍ MINH
-</t>
-  </si>
-  <si>
-    <t>BAN CHẤP HÀNH TRUNG ƯƠNG</t>
-  </si>
-  <si>
     <t>***</t>
+  </si>
+  <si>
+    <t>BỘ GIAO THÔNG VẬN TẢI</t>
+  </si>
+  <si>
+    <t>TRƯỜNG ĐẠI HỌC CÔNG NGHỆ GTVT</t>
   </si>
   <si>
     <r>
@@ -79,7 +78,7 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-CỦA CÁN BỘ, CÔNG CHỨC, VIÊN CHỨC, NGƯỜI LAO ĐỘNG CƠ QUAN TRUNG ƯƠNG ĐOÀN
+CỦA CÁN BỘ, CÔNG CHỨC, VIÊN CHỨC, NGƯỜI LAO ĐỘNG CƠ QUAN TRƯỜNG ĐẠI HỌC CÔNG NGHỆ GTVT
 -----
 </t>
     </r>
@@ -89,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -246,6 +245,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -282,11 +287,8 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,10 +597,10 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:K7"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="40.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="27.125" style="2" customWidth="1"/>
@@ -610,85 +612,85 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="I1" s="12" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="I1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="4.5" customHeight="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
-    <row r="2" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+    <row r="4" spans="1:11" ht="72.75" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="8" t="s">
         <v>1</v>
       </c>
@@ -696,22 +698,22 @@
         <v>4</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+    <row r="7" spans="1:11" s="6" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A7" s="10"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="22"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
